--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -1,80 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.finke\GIT\stocksandloss\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="0" windowWidth="37275" windowHeight="18285"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>advancing</t>
-  </si>
-  <si>
-    <t>declining</t>
-  </si>
-  <si>
-    <t>addiff</t>
-  </si>
-  <si>
-    <t>highs</t>
-  </si>
-  <si>
-    <t>lows</t>
-  </si>
-  <si>
-    <t>hldiff</t>
-  </si>
-  <si>
-    <t>above50</t>
-  </si>
-  <si>
-    <t>below50</t>
-  </si>
-  <si>
-    <t>abdiff</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,80 +424,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>advancing</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>declining</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>addiff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>highs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lows</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hldiff</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>above50</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>below50</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>abdiff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4215</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>570</v>
+      </c>
+      <c r="G2" t="n">
+        <v>204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>366</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4724</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3628</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5281</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2805</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F3" t="n">
+        <v>739</v>
+      </c>
+      <c r="G3" t="n">
+        <v>140</v>
+      </c>
+      <c r="H3" t="n">
+        <v>599</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4957</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3411</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3393</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4647</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1254</v>
+      </c>
+      <c r="F4" t="n">
+        <v>694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>141</v>
+      </c>
+      <c r="H4" t="n">
+        <v>553</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4900</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3469</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="2" t="n">
+        <v>44497.32727542824</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1928</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6141</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4213</v>
+      </c>
+      <c r="F5" t="n">
+        <v>204</v>
+      </c>
+      <c r="G5" t="n">
+        <v>170</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4005</v>
+      </c>
+      <c r="K5" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="2" t="n">
+        <v>44498.39635795139</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5952</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2089</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3863</v>
+      </c>
+      <c r="F6" t="n">
+        <v>313</v>
+      </c>
+      <c r="G6" t="n">
+        <v>146</v>
+      </c>
+      <c r="H6" t="n">
+        <v>167</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4833</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3544</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="2" t="n">
+        <v>44501.38242039352</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3602</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4423</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-821</v>
+      </c>
+      <c r="F7" t="n">
+        <v>424</v>
+      </c>
+      <c r="G7" t="n">
+        <v>137</v>
+      </c>
+      <c r="H7" t="n">
+        <v>287</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4677</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3700</v>
+      </c>
+      <c r="K7" t="n">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" s="2" t="n">
+        <v>44502.34745335648</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4306</v>
+      </c>
+      <c r="F8" t="n">
+        <v>715</v>
+      </c>
+      <c r="G8" t="n">
+        <v>101</v>
+      </c>
+      <c r="H8" t="n">
+        <v>614</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5281</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3089</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9" s="2" t="n">
+        <v>44503.34450280092</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3935</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4118</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-183</v>
+      </c>
+      <c r="F9" t="n">
+        <v>759</v>
+      </c>
+      <c r="G9" t="n">
+        <v>113</v>
+      </c>
+      <c r="H9" t="n">
+        <v>646</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5167</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3203</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B10" s="2" t="n">
+        <v>44504.31491887732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5654</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2372</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3282</v>
+      </c>
+      <c r="F10" t="n">
+        <v>986</v>
+      </c>
+      <c r="G10" t="n">
+        <v>92</v>
+      </c>
+      <c r="H10" t="n">
+        <v>894</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5447</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2923</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44494</v>
-      </c>
-      <c r="C2">
-        <v>3800</v>
-      </c>
-      <c r="D2">
-        <v>4215</v>
-      </c>
-      <c r="E2">
-        <v>-415</v>
-      </c>
-      <c r="F2">
-        <v>570</v>
-      </c>
-      <c r="G2">
-        <v>204</v>
-      </c>
-      <c r="H2">
-        <v>366</v>
-      </c>
-      <c r="I2">
-        <v>4724</v>
-      </c>
-      <c r="J2">
-        <v>3628</v>
-      </c>
-      <c r="K2">
-        <v>1096</v>
+      <c r="B11" s="2" t="n">
+        <v>44505.34310040509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4526</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-989</v>
+      </c>
+      <c r="F11" t="n">
+        <v>985</v>
+      </c>
+      <c r="G11" t="n">
+        <v>90</v>
+      </c>
+      <c r="H11" t="n">
+        <v>895</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5322</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3057</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44508.34596392117</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5172</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2886</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2286</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1156</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5635</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2744</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2891</v>
       </c>
     </row>
   </sheetData>

--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44508.34596392117</v>
+        <v>44508.34596392361</v>
       </c>
       <c r="C12" t="n">
         <v>5172</v>
@@ -872,6 +872,76 @@
       </c>
       <c r="K12" t="n">
         <v>2891</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44509.41778773148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4619</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3420</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F13" t="n">
+        <v>847</v>
+      </c>
+      <c r="G13" t="n">
+        <v>90</v>
+      </c>
+      <c r="H13" t="n">
+        <v>757</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5720</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2657</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44510.41014563749</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3487</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4524</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1037</v>
+      </c>
+      <c r="F14" t="n">
+        <v>415</v>
+      </c>
+      <c r="G14" t="n">
+        <v>93</v>
+      </c>
+      <c r="H14" t="n">
+        <v>322</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5675</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2702</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2973</v>
       </c>
     </row>
   </sheetData>

--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44510.41014563749</v>
+        <v>44510.41014563658</v>
       </c>
       <c r="C14" t="n">
         <v>3487</v>
@@ -942,6 +942,41 @@
       </c>
       <c r="K14" t="n">
         <v>2973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44511.35686868444</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2154</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5916</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3762</v>
+      </c>
+      <c r="F15" t="n">
+        <v>252</v>
+      </c>
+      <c r="G15" t="n">
+        <v>161</v>
+      </c>
+      <c r="H15" t="n">
+        <v>91</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5209</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3168</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2041</v>
       </c>
     </row>
   </sheetData>

--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>advancing</t>
+  </si>
+  <si>
+    <t>declining</t>
+  </si>
+  <si>
+    <t>addiff</t>
+  </si>
+  <si>
+    <t>highs</t>
+  </si>
+  <si>
+    <t>lows</t>
+  </si>
+  <si>
+    <t>hldiff</t>
+  </si>
+  <si>
+    <t>above50</t>
+  </si>
+  <si>
+    <t>below50</t>
+  </si>
+  <si>
+    <t>abdiff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +87,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,562 +404,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>advancing</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>declining</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>addiff</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>highs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lows</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hldiff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>above50</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>below50</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>abdiff</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44494</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3800</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4215</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-415</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>570</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>366</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>4724</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>3628</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1096</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44495</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5281</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2805</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2476</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>739</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>140</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>599</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>4957</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>3411</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1546</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44496</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3393</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4647</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-1254</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>141</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>553</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4900</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3469</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1431</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44497.32727542824</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1928</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6141</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-4213</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>204</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>170</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>34</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4364</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4005</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44498.39635795139</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5952</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3863</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>313</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>146</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>167</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4833</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3544</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1289</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44501.38242039352</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3602</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4423</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-821</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>424</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>137</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>287</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4677</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>3700</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>977</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44502.34745335648</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6210</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1904</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>4306</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>101</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>614</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>5281</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>3089</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>2192</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44503.34450280092</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3935</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4118</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-183</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>759</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>113</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>646</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5167</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>3203</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1964</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44504.31491887732</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5654</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2372</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3282</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>986</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>92</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>894</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5447</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>2923</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>2524</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44505.34310040509</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3537</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4526</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-989</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>985</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>90</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>895</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>5322</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3057</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>2265</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44508.34596392361</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5172</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2886</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2286</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1156</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>139</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1017</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5635</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>2744</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>2891</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44509.41778773148</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4619</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3420</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1199</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>847</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>90</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>757</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>5720</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>2657</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>3063</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44510.41014563658</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3487</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4524</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-1037</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>415</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>93</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>322</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5675</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2702</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>2973</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44511.35686868444</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2">
+        <v>44511.35686868055</v>
+      </c>
+      <c r="C15">
         <v>2154</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5916</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-3762</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>252</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>161</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>91</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>5209</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3168</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2041</v>
       </c>
     </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44515.34431009259</v>
+      </c>
+      <c r="C16">
+        <v>4691</v>
+      </c>
+      <c r="D16">
+        <v>3350</v>
+      </c>
+      <c r="E16">
+        <v>1341</v>
+      </c>
+      <c r="F16">
+        <v>382</v>
+      </c>
+      <c r="G16">
+        <v>121</v>
+      </c>
+      <c r="H16">
+        <v>261</v>
+      </c>
+      <c r="I16">
+        <v>5447</v>
+      </c>
+      <c r="J16">
+        <v>2942</v>
+      </c>
+      <c r="K16">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44516.31699525463</v>
+      </c>
+      <c r="C17">
+        <v>3356</v>
+      </c>
+      <c r="D17">
+        <v>4731</v>
+      </c>
+      <c r="E17">
+        <v>-1375</v>
+      </c>
+      <c r="F17">
+        <v>467</v>
+      </c>
+      <c r="G17">
+        <v>178</v>
+      </c>
+      <c r="H17">
+        <v>289</v>
+      </c>
+      <c r="I17">
+        <v>5356</v>
+      </c>
+      <c r="J17">
+        <v>3041</v>
+      </c>
+      <c r="K17">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44517.39541506945</v>
+      </c>
+      <c r="C18">
+        <v>3664</v>
+      </c>
+      <c r="D18">
+        <v>4373</v>
+      </c>
+      <c r="E18">
+        <v>-709</v>
+      </c>
+      <c r="F18">
+        <v>560</v>
+      </c>
+      <c r="G18">
+        <v>276</v>
+      </c>
+      <c r="H18">
+        <v>284</v>
+      </c>
+      <c r="I18">
+        <v>5243</v>
+      </c>
+      <c r="J18">
+        <v>3156</v>
+      </c>
+      <c r="K18">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44518.36899303241</v>
+      </c>
+      <c r="C19">
+        <v>2312</v>
+      </c>
+      <c r="D19">
+        <v>5789</v>
+      </c>
+      <c r="E19">
+        <v>-3477</v>
+      </c>
+      <c r="F19">
+        <v>266</v>
+      </c>
+      <c r="G19">
+        <v>325</v>
+      </c>
+      <c r="H19">
+        <v>-59</v>
+      </c>
+      <c r="I19">
+        <v>4951</v>
+      </c>
+      <c r="J19">
+        <v>3448</v>
+      </c>
+      <c r="K19">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44519.37329525944</v>
+      </c>
+      <c r="C20">
+        <v>2669</v>
+      </c>
+      <c r="D20">
+        <v>5409</v>
+      </c>
+      <c r="E20">
+        <v>-2740</v>
+      </c>
+      <c r="F20">
+        <v>283</v>
+      </c>
+      <c r="G20">
+        <v>502</v>
+      </c>
+      <c r="H20">
+        <v>-219</v>
+      </c>
+      <c r="I20">
+        <v>4639</v>
+      </c>
+      <c r="J20">
+        <v>3765</v>
+      </c>
+      <c r="K20">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>advancing</t>
+  </si>
+  <si>
+    <t>declining</t>
+  </si>
+  <si>
+    <t>addiff</t>
+  </si>
+  <si>
+    <t>highs</t>
+  </si>
+  <si>
+    <t>lows</t>
+  </si>
+  <si>
+    <t>hldiff</t>
+  </si>
+  <si>
+    <t>above50</t>
+  </si>
+  <si>
+    <t>below50</t>
+  </si>
+  <si>
+    <t>abdiff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +87,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,807 +404,816 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>advancing</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>declining</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>addiff</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>highs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lows</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hldiff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>above50</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>below50</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>abdiff</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44494</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3800</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4215</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-415</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>570</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>366</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>4724</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>3628</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1096</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44495</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5281</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2805</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2476</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>739</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>140</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>599</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>4957</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>3411</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1546</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44496</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3393</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4647</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-1254</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>141</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>553</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4900</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3469</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1431</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44497.32727542824</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1928</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6141</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-4213</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>204</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>170</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>34</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4364</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4005</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44498.39635795139</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5952</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3863</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>313</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>146</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>167</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4833</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3544</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1289</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44501.38242039352</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3602</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4423</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-821</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>424</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>137</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>287</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4677</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>3700</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>977</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44502.34745335648</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6210</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1904</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>4306</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>101</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>614</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>5281</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>3089</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>2192</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44503.34450280092</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3935</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4118</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-183</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>759</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>113</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>646</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5167</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>3203</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1964</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44504.31491887732</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5654</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2372</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3282</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>986</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>92</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>894</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5447</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>2923</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>2524</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44505.34310040509</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3537</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4526</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-989</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>985</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>90</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>895</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>5322</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3057</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>2265</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44508.34596392361</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5172</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2886</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2286</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1156</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>139</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1017</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5635</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>2744</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>2891</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44509.41778773148</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4619</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3420</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1199</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>847</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>90</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>757</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>5720</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>2657</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>3063</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44510.41014563658</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3487</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4524</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-1037</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>415</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>93</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>322</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5675</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2702</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>2973</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44511.35686868055</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2154</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5916</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-3762</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>252</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>161</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>91</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>5209</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3168</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2041</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>44515.34431009259</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4691</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3350</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1341</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>382</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>121</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>261</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>5447</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>2942</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>2505</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44516.31699525463</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3356</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4731</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-1375</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>467</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>178</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>289</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>5356</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>3041</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2315</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>44517.39541506945</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3664</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4373</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-709</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>560</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>276</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>284</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>5243</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>3156</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>2087</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>44518.36899303241</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2312</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5789</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-3477</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>266</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>325</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-59</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>4951</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>3448</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>1503</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>44519.37329525463</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2669</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5409</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-2740</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>283</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>502</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-219</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>4639</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>3765</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>874</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>44522.38869476852</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2533</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5552</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-3019</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>291</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>426</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-135</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>4311</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>4093</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>218</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44523.34680422728</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="2">
+        <v>44523.34680422454</v>
+      </c>
+      <c r="C22">
         <v>3137</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>5013</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-1876</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>467</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>715</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-248</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>4143</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>4270</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-127</v>
       </c>
     </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44524.32231409202</v>
+      </c>
+      <c r="C23">
+        <v>3611</v>
+      </c>
+      <c r="D23">
+        <v>4498</v>
+      </c>
+      <c r="E23">
+        <v>-887</v>
+      </c>
+      <c r="F23">
+        <v>131</v>
+      </c>
+      <c r="G23">
+        <v>712</v>
+      </c>
+      <c r="H23">
+        <v>-581</v>
+      </c>
+      <c r="I23">
+        <v>4056</v>
+      </c>
+      <c r="J23">
+        <v>4357</v>
+      </c>
+      <c r="K23">
+        <v>-301</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44525.39772004164</v>
+        <v>44525.3977200463</v>
       </c>
       <c r="C24" t="n">
         <v>4602</v>
@@ -1292,6 +1292,146 @@
       </c>
       <c r="K24" t="n">
         <v>-197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44529.35256924768</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1256</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6876</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5620</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34</v>
+      </c>
+      <c r="G25" t="n">
+        <v>562</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-528</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5269</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-2125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44530.39455379629</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4006</v>
+      </c>
+      <c r="E26" t="n">
+        <v>123</v>
+      </c>
+      <c r="F26" t="n">
+        <v>61</v>
+      </c>
+      <c r="G26" t="n">
+        <v>444</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-383</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5281</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-2149</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44531.40994409722</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6360</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4572</v>
+      </c>
+      <c r="F27" t="n">
+        <v>46</v>
+      </c>
+      <c r="G27" t="n">
+        <v>887</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-841</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2419</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5994</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-3575</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44532.38076332266</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6492</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-4822</v>
+      </c>
+      <c r="F28" t="n">
+        <v>73</v>
+      </c>
+      <c r="G28" t="n">
+        <v>824</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-751</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1940</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6473</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-4533</v>
       </c>
     </row>
   </sheetData>

--- a/marketmomentum.xlsx
+++ b/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44532.38076332266</v>
+        <v>44532.38076332176</v>
       </c>
       <c r="C28" t="n">
         <v>1670</v>
@@ -1432,6 +1432,41 @@
       </c>
       <c r="K28" t="n">
         <v>-4533</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44533.33020797023</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6014</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2118</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3896</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>816</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-792</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2476</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5956</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-3480</v>
       </c>
     </row>
   </sheetData>
